--- a/excel/chapterI.xlsx
+++ b/excel/chapterI.xlsx
@@ -12,8 +12,14 @@
     <sheet name="T3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="T4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="T5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Troof" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Troof1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Twall" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="T6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="T7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="T8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="T9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="T10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Troof2" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,6 +510,819 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>epf</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ipf1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>wi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>654.1119528092145</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-245.2919823034554</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-245.2919823034554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-817.6399410115181</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.42886653550543</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1168.298349803992</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1062.931923314974</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1062.931923314974</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.42886653550543</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1168.298349803992</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6247119229084849</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-510.7894197960856</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6247119229084849</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-510.7894197960856</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5247119229084849</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-429.0254256949338</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.5247119229084849</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.1077083333333334</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-429.0254256949338</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-88.06663531311565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="3" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fwehor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fwi1hor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fwez</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fwi1z</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>105966.1363550927</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>39737.30113315978</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-14266.79492072474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9694.060717859842</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-730.7408335261226</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17639.54661974082</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1461.481667052245</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17639.54661974082</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1461.481667052245</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9694.060717859842</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-730.7408335261226</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58394.64747514817</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-10067.98481747102</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>58394.64747514817</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-10067.98481747102</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>49047.19542024277</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-10067.98481747102</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>I2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49047.19542024277</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-10067.98481747102</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rhor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ZRhor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rz</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>horRz</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Mrv</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>131436.6425675278</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>224894.5161949423</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.855048049026271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3282142.780811639</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>factors</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>epf1-</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.04942384581697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5247119229084849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>epf10-</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.374135768725455</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.6247119229084849</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.5247119229084849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1798,4 +2617,135 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>b_m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d_m</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>h_m</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>e_m</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ze_m</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>crze</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7312574370573635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ivze</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ceze</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>qpze_N_m_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.294014103795206</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.635279882023036</v>
+      </c>
+      <c r="C2" t="n">
+        <v>817.6399410115181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>